--- a/tables/datas/__tables__.xlsx
+++ b/tables/datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11620"/>
+    <workbookView windowWidth="28800" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,13 +119,13 @@
     <t>main@guide.xlsx</t>
   </si>
   <si>
-    <t>guide.TbGuideScene</t>
-  </si>
-  <si>
-    <t>GuideScene</t>
-  </si>
-  <si>
-    <t>scene@guide.xlsx</t>
+    <t>language.TbLanguage</t>
+  </si>
+  <si>
+    <t>LanguageItem</t>
+  </si>
+  <si>
+    <t>reflect@language.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4"/>
@@ -1081,7 +1081,7 @@
     <col min="2" max="2" width="20.3839285714286" customWidth="1"/>
     <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="32.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="24.3839285714286" customWidth="1"/>
+    <col min="5" max="5" width="25.2946428571429" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1206,7 +1206,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="main@guide.xlsx"/>
-    <hyperlink ref="E5" r:id="rId2" display="scene@guide.xlsx"/>
+    <hyperlink ref="E5" r:id="rId2" display="reflect@language.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
